--- a/phd_to_dos.xlsx
+++ b/phd_to_dos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40F14734-F344-4AFF-BA29-9915C08C4D41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7774FCA-2B25-4C7D-8083-A3703EDB8053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" firstSheet="1" activeTab="5" xr2:uid="{FD38549E-49F2-4B4E-9CFC-1C02E9C2A51D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="24">
   <si>
     <t>Tag</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>Meeting/Deadlines/Kommentare</t>
+  </si>
+  <si>
+    <t>10:00 Uhr Meeting mit Anne (Exposé)</t>
+  </si>
+  <si>
+    <t>Exposé beenden + Anne schicken (bis 15 Uhr)</t>
   </si>
 </sst>
 </file>
@@ -229,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -461,11 +470,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -613,33 +635,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -697,22 +692,42 @@
     <xf numFmtId="166" fontId="4" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="322">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="321">
     <dxf>
       <font>
         <b/>
@@ -4567,28 +4582,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62">
+      <c r="A2" s="85">
         <v>43831</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -4663,28 +4678,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62">
+      <c r="A2" s="85">
         <v>43374</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -4698,20 +4713,20 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="66"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="66"/>
+      <c r="J4" s="89"/>
       <c r="K4" s="3"/>
       <c r="L4" s="49" t="s">
         <v>6</v>
@@ -4757,8 +4772,8 @@
         <f>A6</f>
         <v>44105</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="60" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="35"/>
@@ -4781,18 +4796,18 @@
         <f>B6+1</f>
         <v>44106</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="72"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="63"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
@@ -4803,18 +4818,18 @@
         <f t="shared" si="0"/>
         <v>44107</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
-      <c r="H8" s="72"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
-      <c r="L8" s="72"/>
+      <c r="L8" s="63"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="72"/>
+      <c r="N8" s="63"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
@@ -4825,18 +4840,18 @@
         <f t="shared" si="0"/>
         <v>44108</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
-      <c r="H9" s="72"/>
+      <c r="H9" s="63"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="72"/>
+      <c r="L9" s="63"/>
       <c r="M9" s="36"/>
-      <c r="N9" s="72"/>
+      <c r="N9" s="63"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
@@ -4847,18 +4862,18 @@
         <f t="shared" si="0"/>
         <v>44109</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="72"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="63"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
@@ -4869,18 +4884,18 @@
         <f t="shared" si="0"/>
         <v>44110</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
-      <c r="H11" s="72"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="72"/>
+      <c r="L11" s="63"/>
       <c r="M11" s="36"/>
-      <c r="N11" s="72"/>
+      <c r="N11" s="63"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
@@ -4891,18 +4906,18 @@
         <f t="shared" si="0"/>
         <v>44111</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="58"/>
       <c r="G12" s="58"/>
-      <c r="H12" s="81"/>
+      <c r="H12" s="72"/>
       <c r="I12" s="58"/>
       <c r="J12" s="58"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="76" t="s">
+      <c r="K12" s="73"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="67" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4915,18 +4930,18 @@
         <f t="shared" si="0"/>
         <v>44112</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
-      <c r="H13" s="72"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
-      <c r="L13" s="72"/>
+      <c r="L13" s="63"/>
       <c r="M13" s="36"/>
-      <c r="N13" s="72"/>
+      <c r="N13" s="63"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
@@ -4937,18 +4952,18 @@
         <f t="shared" si="0"/>
         <v>44113</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="72"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
@@ -4959,18 +4974,18 @@
         <f t="shared" si="0"/>
         <v>44114</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
-      <c r="H15" s="72"/>
+      <c r="H15" s="63"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="72"/>
+      <c r="L15" s="63"/>
       <c r="M15" s="36"/>
-      <c r="N15" s="72"/>
+      <c r="N15" s="63"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
@@ -4981,18 +4996,18 @@
         <f t="shared" si="0"/>
         <v>44115</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="72"/>
+      <c r="H16" s="63"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="72"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
@@ -5003,18 +5018,18 @@
         <f t="shared" si="0"/>
         <v>44116</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="72"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="63"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
@@ -5025,18 +5040,18 @@
         <f t="shared" si="0"/>
         <v>44117</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
-      <c r="H18" s="72"/>
+      <c r="H18" s="63"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="72"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="63"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
@@ -5047,18 +5062,18 @@
         <f t="shared" si="0"/>
         <v>44118</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="58"/>
       <c r="G19" s="58"/>
-      <c r="H19" s="81"/>
+      <c r="H19" s="72"/>
       <c r="I19" s="58"/>
       <c r="J19" s="58"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="76" t="s">
+      <c r="K19" s="73"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="67" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5071,18 +5086,18 @@
         <f t="shared" si="0"/>
         <v>44119</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="72"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
-      <c r="L20" s="72"/>
+      <c r="L20" s="63"/>
       <c r="M20" s="36"/>
-      <c r="N20" s="72"/>
+      <c r="N20" s="63"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
@@ -5093,18 +5108,18 @@
         <f t="shared" si="0"/>
         <v>44120</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="72"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="63"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
@@ -5115,18 +5130,18 @@
         <f t="shared" si="0"/>
         <v>44121</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
-      <c r="H22" s="72"/>
+      <c r="H22" s="63"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
-      <c r="L22" s="72"/>
+      <c r="L22" s="63"/>
       <c r="M22" s="36"/>
-      <c r="N22" s="72"/>
+      <c r="N22" s="63"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
@@ -5137,18 +5152,18 @@
         <f t="shared" si="0"/>
         <v>44122</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="72"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="72"/>
+      <c r="H23" s="63"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="72"/>
+      <c r="L23" s="63"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="72"/>
+      <c r="N23" s="63"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
@@ -5159,18 +5174,18 @@
         <f t="shared" si="1"/>
         <v>44123</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="72"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="63"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
@@ -5181,18 +5196,18 @@
         <f t="shared" si="1"/>
         <v>44124</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
-      <c r="H25" s="72"/>
+      <c r="H25" s="63"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="72"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="63"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
@@ -5203,18 +5218,18 @@
         <f t="shared" si="1"/>
         <v>44125</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="72"/>
       <c r="F26" s="58"/>
       <c r="G26" s="58"/>
-      <c r="H26" s="81"/>
+      <c r="H26" s="72"/>
       <c r="I26" s="58"/>
       <c r="J26" s="58"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="76" t="s">
+      <c r="K26" s="73"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="67" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5227,18 +5242,18 @@
         <f t="shared" si="1"/>
         <v>44126</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="84"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="72"/>
+      <c r="H27" s="63"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
-      <c r="L27" s="72"/>
+      <c r="L27" s="63"/>
       <c r="M27" s="36"/>
-      <c r="N27" s="72"/>
+      <c r="N27" s="63"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
@@ -5249,18 +5264,18 @@
         <f t="shared" si="1"/>
         <v>44127</v>
       </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="72"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="63"/>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
@@ -5271,18 +5286,18 @@
         <f t="shared" si="1"/>
         <v>44128</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="72"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="36"/>
       <c r="G29" s="36"/>
-      <c r="H29" s="72"/>
+      <c r="H29" s="63"/>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="72"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="63"/>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
@@ -5293,62 +5308,62 @@
         <f t="shared" si="1"/>
         <v>44129</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
-      <c r="H30" s="72"/>
+      <c r="H30" s="63"/>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
-      <c r="L30" s="72"/>
+      <c r="L30" s="63"/>
       <c r="M30" s="36"/>
-      <c r="N30" s="72"/>
+      <c r="N30" s="63"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="89">
+      <c r="A31" s="80">
         <f t="shared" si="1"/>
         <v>44130</v>
       </c>
-      <c r="B31" s="90">
+      <c r="B31" s="81">
         <f t="shared" si="1"/>
         <v>44130</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="72"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="63"/>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="89">
+      <c r="A32" s="80">
         <f t="shared" si="1"/>
         <v>44131</v>
       </c>
-      <c r="B32" s="90">
+      <c r="B32" s="81">
         <f t="shared" si="1"/>
         <v>44131</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="72"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="72"/>
+      <c r="H32" s="63"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
-      <c r="L32" s="72"/>
+      <c r="L32" s="63"/>
       <c r="M32" s="36"/>
-      <c r="N32" s="72"/>
+      <c r="N32" s="63"/>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="54">
@@ -5359,18 +5374,18 @@
         <f t="shared" si="1"/>
         <v>44132</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="58"/>
       <c r="G33" s="58"/>
-      <c r="H33" s="81"/>
+      <c r="H33" s="72"/>
       <c r="I33" s="58"/>
       <c r="J33" s="58"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="76" t="s">
+      <c r="K33" s="73"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="67" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5383,18 +5398,18 @@
         <f t="shared" si="1"/>
         <v>44133</v>
       </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="72"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="63"/>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
@@ -5405,18 +5420,18 @@
         <f t="shared" si="1"/>
         <v>44134</v>
       </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="72"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="63"/>
     </row>
     <row r="36" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
@@ -5431,7 +5446,7 @@
       <c r="D36" s="12"/>
       <c r="E36" s="43"/>
       <c r="F36" s="8">
-        <f t="shared" ref="F7:F36" si="2">MAX(0,D36-C36-E36)</f>
+        <f t="shared" ref="F36" si="2">MAX(0,D36-C36-E36)</f>
         <v>0</v>
       </c>
       <c r="G36" s="8"/>
@@ -5631,527 +5646,527 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="129" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="4" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="expression" dxfId="128" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="156" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B36">
-    <cfRule type="expression" dxfId="127" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="182" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="126" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="8" stopIfTrue="1">
       <formula>WEEKDAY($A14,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:J14">
-    <cfRule type="expression" dxfId="125" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="7" stopIfTrue="1">
       <formula>WEEKDAY($A14,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:G7">
-    <cfRule type="expression" dxfId="124" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="6" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="123" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="5" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L36">
-    <cfRule type="expression" dxfId="122" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="154" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="121" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="14" stopIfTrue="1">
       <formula>WEEKDAY($A10,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="120" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="166" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:G36">
-    <cfRule type="expression" dxfId="119" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="172" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:G10">
-    <cfRule type="expression" dxfId="118" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="18" stopIfTrue="1">
       <formula>WEEKDAY($A10,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="117" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="17" stopIfTrue="1">
       <formula>WEEKDAY($A10,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="116" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="16" stopIfTrue="1">
       <formula>WEEKDAY($A10,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="115" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="15" stopIfTrue="1">
       <formula>WEEKDAY($A10,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="expression" dxfId="114" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="164" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="expression" dxfId="113" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="163" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20 K16 K18 K27 K23 K25">
-    <cfRule type="expression" dxfId="112" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="148" stopIfTrue="1">
       <formula>WEEKDAY($A16,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:G6 C32:G32 C30:G30 C18:G18 C25:G25 C22:G23 C15:G16 C8:G9 C13:G13 C20:G20 C27:G27 C34:G34 C11:G11">
-    <cfRule type="expression" dxfId="111" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="153" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6 K9 K30 K34 K32 K13 K11">
-    <cfRule type="expression" dxfId="110" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="152" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="109" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="151" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="108" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="150" stopIfTrue="1">
       <formula>WEEKDAY($A15,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="107" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="149" stopIfTrue="1">
       <formula>WEEKDAY($A22,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6 L32 L30 L18 L25 L22:L23 L15:L16 L8:L9 L13 L20 L27 L34 L11">
-    <cfRule type="expression" dxfId="106" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="147" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20 M16 M18 M27 M23 M25">
-    <cfRule type="expression" dxfId="105" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="142" stopIfTrue="1">
       <formula>WEEKDAY($A16,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6 M9 M30 M34 M32 M13 M11">
-    <cfRule type="expression" dxfId="104" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="146" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="103" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="145" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="expression" dxfId="102" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="144" stopIfTrue="1">
       <formula>WEEKDAY($A15,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="expression" dxfId="101" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="143" stopIfTrue="1">
       <formula>WEEKDAY($A22,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6 N32 N30 N11 N18 N25 N22:N23 N15:N16 N8:N9 N13 N20 N27 N34">
-    <cfRule type="expression" dxfId="100" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="141" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="expression" dxfId="99" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="68" stopIfTrue="1">
       <formula>WEEKDAY($A19,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:J19">
-    <cfRule type="expression" dxfId="98" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="67" stopIfTrue="1">
       <formula>WEEKDAY($A19,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:G19">
-    <cfRule type="expression" dxfId="97" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="72" stopIfTrue="1">
       <formula>WEEKDAY($A19,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="96" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="71" stopIfTrue="1">
       <formula>WEEKDAY($A19,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="95" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="76" stopIfTrue="1">
       <formula>WEEKDAY($A12,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="94" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="75" stopIfTrue="1">
       <formula>WEEKDAY($A12,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:J6 H32:J32 H30:J30 H18:J18 H25:J25 H22:J23 H15:J16 H8:J9 H13:J13 H20:J20 H27:J27 H34:J34 H11:J11">
-    <cfRule type="expression" dxfId="93" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="134" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:G29">
-    <cfRule type="expression" dxfId="92" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="127" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="expression" dxfId="91" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="126" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="expression" dxfId="90" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="125" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="89" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="124" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="expression" dxfId="88" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="123" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:J29">
-    <cfRule type="expression" dxfId="87" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="122" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:G12">
-    <cfRule type="expression" dxfId="86" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="78" stopIfTrue="1">
       <formula>WEEKDAY($A12,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="85" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="77" stopIfTrue="1">
       <formula>WEEKDAY($A12,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="expression" dxfId="84" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="74" stopIfTrue="1">
       <formula>WEEKDAY($A12,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:J12">
-    <cfRule type="expression" dxfId="83" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="73" stopIfTrue="1">
       <formula>WEEKDAY($A12,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="expression" dxfId="82" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="53" stopIfTrue="1">
       <formula>WEEKDAY($A35,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:G35">
-    <cfRule type="expression" dxfId="81" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="54" stopIfTrue="1">
       <formula>WEEKDAY($A35,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="expression" dxfId="80" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="52" stopIfTrue="1">
       <formula>WEEKDAY($A35,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35">
-    <cfRule type="expression" dxfId="79" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="51" stopIfTrue="1">
       <formula>WEEKDAY($A35,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35">
-    <cfRule type="expression" dxfId="78" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="50" stopIfTrue="1">
       <formula>WEEKDAY($A35,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:J35">
-    <cfRule type="expression" dxfId="77" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="49" stopIfTrue="1">
       <formula>WEEKDAY($A35,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="expression" dxfId="76" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="59" stopIfTrue="1">
       <formula>WEEKDAY($A33,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:G33">
-    <cfRule type="expression" dxfId="75" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="60" stopIfTrue="1">
       <formula>WEEKDAY($A33,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="expression" dxfId="74" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="58" stopIfTrue="1">
       <formula>WEEKDAY($A33,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33">
-    <cfRule type="expression" dxfId="73" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="57" stopIfTrue="1">
       <formula>WEEKDAY($A33,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="expression" dxfId="72" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="56" stopIfTrue="1">
       <formula>WEEKDAY($A33,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:J33">
-    <cfRule type="expression" dxfId="71" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="55" stopIfTrue="1">
       <formula>WEEKDAY($A33,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="expression" dxfId="70" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="70" stopIfTrue="1">
       <formula>WEEKDAY($A19,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="69" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="69" stopIfTrue="1">
       <formula>WEEKDAY($A19,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="68" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
       <formula>WEEKDAY($A26,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:G26">
-    <cfRule type="expression" dxfId="67" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="66" stopIfTrue="1">
       <formula>WEEKDAY($A26,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="expression" dxfId="66" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="64" stopIfTrue="1">
       <formula>WEEKDAY($A26,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="expression" dxfId="65" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="63" stopIfTrue="1">
       <formula>WEEKDAY($A26,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="expression" dxfId="64" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="62" stopIfTrue="1">
       <formula>WEEKDAY($A26,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:J26">
-    <cfRule type="expression" dxfId="63" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="61" stopIfTrue="1">
       <formula>WEEKDAY($A26,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:G31">
-    <cfRule type="expression" dxfId="62" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="48" stopIfTrue="1">
       <formula>WEEKDAY($A31,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="expression" dxfId="61" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="47" stopIfTrue="1">
       <formula>WEEKDAY($A31,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="expression" dxfId="60" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="46" stopIfTrue="1">
       <formula>WEEKDAY($A31,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31">
-    <cfRule type="expression" dxfId="59" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="45" stopIfTrue="1">
       <formula>WEEKDAY($A31,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="58" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="44" stopIfTrue="1">
       <formula>WEEKDAY($A31,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:J31">
-    <cfRule type="expression" dxfId="57" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="43" stopIfTrue="1">
       <formula>WEEKDAY($A31,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:G28">
-    <cfRule type="expression" dxfId="56" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="42" stopIfTrue="1">
       <formula>WEEKDAY($A28,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="55" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="41" stopIfTrue="1">
       <formula>WEEKDAY($A28,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="expression" dxfId="54" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="40" stopIfTrue="1">
       <formula>WEEKDAY($A28,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="expression" dxfId="53" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="39" stopIfTrue="1">
       <formula>WEEKDAY($A28,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="expression" dxfId="52" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="38" stopIfTrue="1">
       <formula>WEEKDAY($A28,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:J28">
-    <cfRule type="expression" dxfId="51" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="37" stopIfTrue="1">
       <formula>WEEKDAY($A28,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:G24">
-    <cfRule type="expression" dxfId="50" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="36" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="expression" dxfId="49" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="35" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="expression" dxfId="48" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="34" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24">
-    <cfRule type="expression" dxfId="47" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="33" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="expression" dxfId="46" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="32" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:J24">
-    <cfRule type="expression" dxfId="45" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="31" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:G17">
-    <cfRule type="expression" dxfId="44" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="30" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="43" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="29" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="expression" dxfId="42" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="28" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="expression" dxfId="41" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="27" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="expression" dxfId="40" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="26" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:J17">
-    <cfRule type="expression" dxfId="39" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="25" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:G21">
-    <cfRule type="expression" dxfId="38" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="24" stopIfTrue="1">
       <formula>WEEKDAY($A21,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="37" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="23" stopIfTrue="1">
       <formula>WEEKDAY($A21,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="expression" dxfId="36" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="22" stopIfTrue="1">
       <formula>WEEKDAY($A21,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="expression" dxfId="35" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="21" stopIfTrue="1">
       <formula>WEEKDAY($A21,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="20" stopIfTrue="1">
       <formula>WEEKDAY($A21,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:J21">
-    <cfRule type="expression" dxfId="33" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="19" stopIfTrue="1">
       <formula>WEEKDAY($A21,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:J10">
-    <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="13" stopIfTrue="1">
       <formula>WEEKDAY($A10,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:G14">
-    <cfRule type="expression" dxfId="31" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="12" stopIfTrue="1">
       <formula>WEEKDAY($A14,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="30" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="11" stopIfTrue="1">
       <formula>WEEKDAY($A14,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="10" stopIfTrue="1">
       <formula>WEEKDAY($A14,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="28" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
       <formula>WEEKDAY($A14,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="27" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="3" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:J7">
-    <cfRule type="expression" dxfId="25" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="1" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6175,50 +6190,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62">
+      <c r="A2" s="85">
         <v>44136</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="66"/>
+      <c r="J4" s="89"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="66"/>
+      <c r="M4" s="89"/>
     </row>
     <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="29" t="s">
@@ -6271,7 +6286,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
       <c r="F7" s="8">
-        <f t="shared" ref="F7:F36" si="0">MAX(0,D7-C7-E7)</f>
+        <f t="shared" ref="F7:F19" si="0">MAX(0,D7-C7-E7)</f>
         <v>0</v>
       </c>
       <c r="G7" s="8"/>
@@ -7116,107 +7131,107 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:B35">
-    <cfRule type="expression" dxfId="24" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="30" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K7 K9:K14 K30:K32 K34:K35">
-    <cfRule type="expression" dxfId="23" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="22" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="13" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="12" stopIfTrue="1">
       <formula>WEEKDAY($A15,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="20" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
       <formula>WEEKDAY($A22,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L35">
-    <cfRule type="expression" dxfId="19" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="7" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H21 H16 H18 H27:H29 H23 H25">
-    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
       <formula>WEEKDAY($A16,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:G35">
-    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="25" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H7 H9:H14 H30:H32 H34:H35">
-    <cfRule type="expression" dxfId="16" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="24" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="23" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="14" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="22" stopIfTrue="1">
       <formula>WEEKDAY($A15,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="21" stopIfTrue="1">
       <formula>WEEKDAY($A22,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I35">
-    <cfRule type="expression" dxfId="12" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="17" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J35">
-    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="16" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:K21 K16 K18 K27:K29 K23 K25">
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>WEEKDAY($A16,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>WEEKDAY($A19,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>WEEKDAY($A19,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>WEEKDAY($A26,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>WEEKDAY($A26,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>WEEKDAY($A33,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>WEEKDAY($A33,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7242,50 +7257,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62">
+      <c r="A2" s="85">
         <v>44166</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="66"/>
+      <c r="J4" s="89"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="66"/>
+      <c r="M4" s="89"/>
     </row>
     <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="29" t="s">
@@ -8178,7 +8193,7 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L36 A6:G36 H27:H32 I6:J36 K27:K32 K34:K36 H6:H18 K6:K18 K20:K25 H20:H25 H35:H36">
-    <cfRule type="expression" dxfId="3" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="28" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8211,28 +8226,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62">
+      <c r="A2" s="85">
         <v>43862</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -8406,28 +8421,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62">
+      <c r="A2" s="85">
         <v>43891</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -8490,28 +8505,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62">
+      <c r="A2" s="85">
         <v>44105</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -9303,28 +9318,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62">
+      <c r="A2" s="85">
         <v>43952</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -9694,10 +9709,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE7BC2-36C0-0843-A754-CFE1AB9CF28D}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9709,38 +9724,37 @@
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.4140625" customWidth="1"/>
-    <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="28.4140625" customWidth="1"/>
-    <col min="13" max="13" width="4.08203125" customWidth="1"/>
-    <col min="14" max="14" width="32.4140625" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="28.4140625" customWidth="1"/>
+    <col min="12" max="12" width="4.08203125" customWidth="1"/>
+    <col min="13" max="13" width="32.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.35">
+      <c r="A1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-    </row>
-    <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
+    </row>
+    <row r="2" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="85">
         <v>43983</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-    </row>
-    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -9749,33 +9763,32 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="66"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="49" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L4" s="3"/>
+      <c r="M4" s="48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
@@ -9792,16 +9805,17 @@
       <c r="F5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>43983</v>
       </c>
@@ -9809,8 +9823,8 @@
         <f>A6</f>
         <v>43983</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="60" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="35"/>
@@ -9819,12 +9833,11 @@
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="35"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="35"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <f>A6+1</f>
         <v>43984</v>
@@ -9833,20 +9846,19 @@
         <f>B6+1</f>
         <v>43984</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
-      <c r="H7" s="72"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="72"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K7" s="63"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="63"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <f t="shared" ref="A8:B23" si="0">A7+1</f>
         <v>43985</v>
@@ -9855,20 +9867,19 @@
         <f t="shared" si="0"/>
         <v>43985</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
-      <c r="H8" s="72"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="72"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K8" s="63"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="63"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>43986</v>
@@ -9877,20 +9888,19 @@
         <f t="shared" si="0"/>
         <v>43986</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
-      <c r="H9" s="72"/>
+      <c r="H9" s="63"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="72"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K9" s="63"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="63"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>43987</v>
@@ -9899,20 +9909,19 @@
         <f t="shared" si="0"/>
         <v>43987</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
-      <c r="H10" s="72"/>
+      <c r="H10" s="63"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="72"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K10" s="63"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="63"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>43988</v>
@@ -9921,20 +9930,19 @@
         <f t="shared" si="0"/>
         <v>43988</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
-      <c r="H11" s="72"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="72"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K11" s="63"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="63"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>43989</v>
@@ -9943,20 +9951,19 @@
         <f t="shared" si="0"/>
         <v>43989</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
-      <c r="H12" s="72"/>
+      <c r="H12" s="63"/>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="72"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K12" s="63"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="63"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>43990</v>
@@ -9965,20 +9972,19 @@
         <f t="shared" si="0"/>
         <v>43990</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
-      <c r="H13" s="72"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="72"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K13" s="63"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="63"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>43991</v>
@@ -9987,20 +9993,19 @@
         <f t="shared" si="0"/>
         <v>43991</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="72"/>
+      <c r="H14" s="63"/>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="72"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K14" s="63"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="63"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>43992</v>
@@ -10009,20 +10014,19 @@
         <f t="shared" si="0"/>
         <v>43992</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
-      <c r="H15" s="72"/>
+      <c r="H15" s="63"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="72"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K15" s="63"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="63"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>43993</v>
@@ -10031,20 +10035,19 @@
         <f t="shared" si="0"/>
         <v>43993</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="72"/>
+      <c r="H16" s="63"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="72"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J16" s="61"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="63"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>43994</v>
@@ -10053,20 +10056,19 @@
         <f t="shared" si="0"/>
         <v>43994</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
-      <c r="H17" s="72"/>
+      <c r="H17" s="63"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="72"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J17" s="64"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="63"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>43995</v>
@@ -10075,20 +10077,19 @@
         <f t="shared" si="0"/>
         <v>43995</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
-      <c r="H18" s="72"/>
+      <c r="H18" s="63"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="72"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J18" s="59"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="63"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>43996</v>
@@ -10097,20 +10098,19 @@
         <f t="shared" si="0"/>
         <v>43996</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
-      <c r="H19" s="72"/>
+      <c r="H19" s="63"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="72"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J19" s="59"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="63"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>43997</v>
@@ -10119,20 +10119,19 @@
         <f t="shared" si="0"/>
         <v>43997</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="72"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="72"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K20" s="63"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="63"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>43998</v>
@@ -10141,20 +10140,19 @@
         <f t="shared" si="0"/>
         <v>43998</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
-      <c r="H21" s="72"/>
+      <c r="H21" s="63"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="72"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K21" s="63"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="63"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>43999</v>
@@ -10163,20 +10161,19 @@
         <f t="shared" si="0"/>
         <v>43999</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
-      <c r="H22" s="72"/>
+      <c r="H22" s="63"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="72"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K22" s="63"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="63"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>44000</v>
@@ -10185,24 +10182,23 @@
         <f t="shared" si="0"/>
         <v>44000</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="83" t="s">
+      <c r="D23" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="72"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="72"/>
+      <c r="H23" s="63"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="72"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K23" s="63"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="63"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <f t="shared" ref="A24:B36" si="1">A23+1</f>
         <v>44001</v>
@@ -10211,22 +10207,21 @@
         <f t="shared" si="1"/>
         <v>44001</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
-      <c r="H24" s="72"/>
+      <c r="H24" s="63"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="72"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J24" s="64"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="63"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <f t="shared" si="1"/>
         <v>44002</v>
@@ -10235,20 +10230,19 @@
         <f t="shared" si="1"/>
         <v>44002</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
-      <c r="H25" s="72"/>
+      <c r="H25" s="63"/>
       <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="72"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J25" s="59"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="63"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <f t="shared" si="1"/>
         <v>44003</v>
@@ -10257,20 +10251,19 @@
         <f t="shared" si="1"/>
         <v>44003</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="72"/>
+      <c r="H26" s="63"/>
       <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="72"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J26" s="59"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="63"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <f t="shared" si="1"/>
         <v>44004</v>
@@ -10279,22 +10272,23 @@
         <f t="shared" si="1"/>
         <v>44004</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="84" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="75" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="36"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="36"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="75" t="s">
+        <v>23</v>
+      </c>
       <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="72"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K27" s="63"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="63"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <f t="shared" si="1"/>
         <v>44005</v>
@@ -10303,20 +10297,21 @@
         <f t="shared" si="1"/>
         <v>44005</v>
       </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
-      <c r="H28" s="72"/>
+      <c r="H28" s="63"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="72"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K28" s="63"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="50">
         <f t="shared" si="1"/>
         <v>44006</v>
@@ -10325,22 +10320,21 @@
         <f t="shared" si="1"/>
         <v>44006</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="76" t="s">
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="67" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <f t="shared" si="1"/>
         <v>44007</v>
@@ -10349,20 +10343,19 @@
         <f t="shared" si="1"/>
         <v>44007</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
-      <c r="H30" s="72"/>
+      <c r="H30" s="63"/>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="72"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K30" s="63"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="63"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <f t="shared" si="1"/>
         <v>44008</v>
@@ -10371,20 +10364,19 @@
         <f t="shared" si="1"/>
         <v>44008</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
-      <c r="H31" s="72"/>
+      <c r="H31" s="63"/>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="72"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K31" s="63"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="63"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <f t="shared" si="1"/>
         <v>44009</v>
@@ -10393,20 +10385,19 @@
         <f t="shared" si="1"/>
         <v>44009</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="72"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="72"/>
+      <c r="H32" s="63"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="72"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K32" s="63"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="63"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <f t="shared" si="1"/>
         <v>44010</v>
@@ -10415,20 +10406,19 @@
         <f t="shared" si="1"/>
         <v>44010</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="72"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
-      <c r="H33" s="72"/>
+      <c r="H33" s="63"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="72"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K33" s="63"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="63"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>44011</v>
@@ -10437,20 +10427,19 @@
         <f t="shared" si="1"/>
         <v>44011</v>
       </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="72"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="63"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>44012</v>
@@ -10459,20 +10448,19 @@
         <f t="shared" si="1"/>
         <v>44012</v>
       </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="72"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
-      <c r="H35" s="72"/>
+      <c r="H35" s="63"/>
       <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="72"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J35" s="59"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="63"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="52">
         <f t="shared" si="1"/>
         <v>44013</v>
@@ -10481,44 +10469,41 @@
         <f t="shared" si="1"/>
         <v>44013</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="72"/>
       <c r="F36" s="58"/>
       <c r="G36" s="58"/>
-      <c r="H36" s="81"/>
+      <c r="H36" s="72"/>
       <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="76" t="s">
+      <c r="J36" s="73"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="67" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37" s="67"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="90"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
-      <c r="J37" s="37"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" s="67"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="90"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
       <c r="H38" s="39"/>
-      <c r="J38" s="39"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -10527,9 +10512,8 @@
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="19"/>
-      <c r="J39" s="19"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -10538,39 +10522,38 @@
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="19"/>
-      <c r="J40" s="19"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="21"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="22"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="17"/>
       <c r="B46" s="24"/>
       <c r="C46" s="18"/>
@@ -10579,9 +10562,8 @@
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
       <c r="H46" s="19"/>
-      <c r="J46" s="19"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="17"/>
       <c r="B47" s="24"/>
       <c r="C47" s="18"/>
@@ -10590,7 +10572,7 @@
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="17"/>
       <c r="B48" s="24"/>
       <c r="C48" s="18"/>
@@ -10599,7 +10581,7 @@
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="17"/>
       <c r="B49" s="24"/>
       <c r="C49" s="18"/>
@@ -10608,7 +10590,7 @@
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="17"/>
       <c r="B50" s="24"/>
       <c r="C50" s="18"/>
@@ -10617,9 +10599,8 @@
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
-      <c r="J50" s="19"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="17"/>
       <c r="B51" s="28"/>
       <c r="C51" s="18"/>
@@ -10628,7 +10609,7 @@
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="18"/>
       <c r="B52" s="17"/>
       <c r="C52" s="18"/>
@@ -10637,144 +10618,142 @@
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
       <c r="H54" s="19"/>
-      <c r="J54" s="19"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E55" s="27"/>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="I4:J4"/>
+  <mergeCells count="6">
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="K20:K21 K16 K18 K27:K29 K23 K25">
-    <cfRule type="expression" dxfId="321" priority="22" stopIfTrue="1">
+  <conditionalFormatting sqref="J20:J21 J16 J18 J27:J29 J23 J25">
+    <cfRule type="expression" dxfId="320" priority="22" stopIfTrue="1">
       <formula>WEEKDAY($A16,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
-    <cfRule type="expression" dxfId="320" priority="21" stopIfTrue="1">
+  <conditionalFormatting sqref="J36">
+    <cfRule type="expression" dxfId="319" priority="21" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:G36">
-    <cfRule type="expression" dxfId="319" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="27" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K7 K9:K14 K30:K32 K34:K35">
-    <cfRule type="expression" dxfId="318" priority="26" stopIfTrue="1">
+  <conditionalFormatting sqref="J6:J7 J9:J14 J30:J32 J34:J35">
+    <cfRule type="expression" dxfId="317" priority="26" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="317" priority="25" stopIfTrue="1">
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="316" priority="25" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="316" priority="24" stopIfTrue="1">
+  <conditionalFormatting sqref="J15">
+    <cfRule type="expression" dxfId="315" priority="24" stopIfTrue="1">
       <formula>WEEKDAY($A15,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="315" priority="23" stopIfTrue="1">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="expression" dxfId="314" priority="23" stopIfTrue="1">
       <formula>WEEKDAY($A22,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L36">
-    <cfRule type="expression" dxfId="314" priority="19" stopIfTrue="1">
+  <conditionalFormatting sqref="K6:K36">
+    <cfRule type="expression" dxfId="313" priority="19" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20:M21 M16 M18 M27:M29 M23 M25">
-    <cfRule type="expression" dxfId="313" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="L20:L21 L16 L18 L27:L29 L23 L25">
+    <cfRule type="expression" dxfId="312" priority="12" stopIfTrue="1">
       <formula>WEEKDAY($A16,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M36">
-    <cfRule type="expression" dxfId="312" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="L36">
+    <cfRule type="expression" dxfId="311" priority="11" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M7 M9:M14 M30:M32 M34:M35">
-    <cfRule type="expression" dxfId="311" priority="16" stopIfTrue="1">
+  <conditionalFormatting sqref="L6:L7 L9:L14 L30:L32 L34:L35">
+    <cfRule type="expression" dxfId="310" priority="16" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="310" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="L8">
+    <cfRule type="expression" dxfId="309" priority="15" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
-    <cfRule type="expression" dxfId="309" priority="14" stopIfTrue="1">
+  <conditionalFormatting sqref="L15">
+    <cfRule type="expression" dxfId="308" priority="14" stopIfTrue="1">
       <formula>WEEKDAY($A15,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22">
-    <cfRule type="expression" dxfId="308" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="L22">
+    <cfRule type="expression" dxfId="307" priority="13" stopIfTrue="1">
       <formula>WEEKDAY($A22,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N36">
-    <cfRule type="expression" dxfId="307" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="M6:M36">
+    <cfRule type="expression" dxfId="306" priority="9" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="306" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="J19">
+    <cfRule type="expression" dxfId="305" priority="7" stopIfTrue="1">
       <formula>WEEKDAY($A19,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="305" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="L19">
+    <cfRule type="expression" dxfId="304" priority="6" stopIfTrue="1">
       <formula>WEEKDAY($A19,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="304" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="expression" dxfId="303" priority="5" stopIfTrue="1">
       <formula>WEEKDAY($A26,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M26">
-    <cfRule type="expression" dxfId="303" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="L26">
+    <cfRule type="expression" dxfId="302" priority="4" stopIfTrue="1">
       <formula>WEEKDAY($A26,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33">
-    <cfRule type="expression" dxfId="302" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="J33">
+    <cfRule type="expression" dxfId="301" priority="3" stopIfTrue="1">
       <formula>WEEKDAY($A33,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M33">
-    <cfRule type="expression" dxfId="301" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="L33">
+    <cfRule type="expression" dxfId="300" priority="2" stopIfTrue="1">
       <formula>WEEKDAY($A33,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:J36">
-    <cfRule type="expression" dxfId="300" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="H6:I36">
+    <cfRule type="expression" dxfId="299" priority="1" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10808,28 +10787,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62">
+      <c r="A2" s="85">
         <v>44013</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -10843,20 +10822,20 @@
     <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="66"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="66"/>
+      <c r="J4" s="89"/>
       <c r="K4" s="3"/>
       <c r="L4" s="49" t="s">
         <v>6</v>
@@ -10900,8 +10879,8 @@
         <f>A6</f>
         <v>44013</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="86" t="s">
+      <c r="C6" s="73"/>
+      <c r="D6" s="77" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="57"/>
@@ -10913,7 +10892,7 @@
       <c r="K6" s="58"/>
       <c r="L6" s="57"/>
       <c r="M6" s="58"/>
-      <c r="N6" s="76" t="s">
+      <c r="N6" s="67" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10926,18 +10905,18 @@
         <f>B6+1</f>
         <v>44014</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
-      <c r="H7" s="72"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
-      <c r="L7" s="72"/>
+      <c r="L7" s="63"/>
       <c r="M7" s="36"/>
-      <c r="N7" s="72"/>
+      <c r="N7" s="63"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
@@ -10948,18 +10927,18 @@
         <f t="shared" si="0"/>
         <v>44015</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
-      <c r="H8" s="72"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
-      <c r="L8" s="72"/>
+      <c r="L8" s="63"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="72"/>
+      <c r="N8" s="63"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
@@ -10970,18 +10949,18 @@
         <f t="shared" si="0"/>
         <v>44016</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
-      <c r="H9" s="72"/>
+      <c r="H9" s="63"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="72"/>
+      <c r="L9" s="63"/>
       <c r="M9" s="36"/>
-      <c r="N9" s="72"/>
+      <c r="N9" s="63"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
@@ -10992,18 +10971,18 @@
         <f t="shared" si="0"/>
         <v>44017</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
-      <c r="H10" s="72"/>
+      <c r="H10" s="63"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="72"/>
+      <c r="L10" s="63"/>
       <c r="M10" s="36"/>
-      <c r="N10" s="72"/>
+      <c r="N10" s="63"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
@@ -11014,18 +10993,18 @@
         <f t="shared" si="0"/>
         <v>44018</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
-      <c r="H11" s="72"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="72"/>
+      <c r="L11" s="63"/>
       <c r="M11" s="36"/>
-      <c r="N11" s="72"/>
+      <c r="N11" s="63"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
@@ -11036,18 +11015,18 @@
         <f t="shared" si="0"/>
         <v>44019</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
-      <c r="H12" s="72"/>
+      <c r="H12" s="63"/>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
-      <c r="L12" s="72"/>
+      <c r="L12" s="63"/>
       <c r="M12" s="36"/>
-      <c r="N12" s="72"/>
+      <c r="N12" s="63"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
@@ -11058,18 +11037,18 @@
         <f t="shared" si="0"/>
         <v>44020</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="85"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="76"/>
       <c r="F13" s="58"/>
       <c r="G13" s="58"/>
-      <c r="H13" s="85"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="58"/>
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
-      <c r="L13" s="85"/>
+      <c r="L13" s="76"/>
       <c r="M13" s="58"/>
-      <c r="N13" s="76" t="s">
+      <c r="N13" s="67" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11082,18 +11061,18 @@
         <f t="shared" si="0"/>
         <v>44021</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="72"/>
+      <c r="H14" s="63"/>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
-      <c r="L14" s="72"/>
+      <c r="L14" s="63"/>
       <c r="M14" s="36"/>
-      <c r="N14" s="72"/>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
@@ -11104,18 +11083,18 @@
         <f t="shared" si="0"/>
         <v>44022</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
-      <c r="H15" s="72"/>
+      <c r="H15" s="63"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="72"/>
+      <c r="L15" s="63"/>
       <c r="M15" s="36"/>
-      <c r="N15" s="72"/>
+      <c r="N15" s="63"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
@@ -11126,18 +11105,18 @@
         <f t="shared" si="0"/>
         <v>44023</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="72"/>
+      <c r="H16" s="63"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="72"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
@@ -11148,18 +11127,18 @@
         <f t="shared" si="0"/>
         <v>44024</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
-      <c r="H17" s="72"/>
+      <c r="H17" s="63"/>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="72"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="63"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
@@ -11170,18 +11149,18 @@
         <f t="shared" si="0"/>
         <v>44025</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
-      <c r="H18" s="72"/>
+      <c r="H18" s="63"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="72"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="63"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
@@ -11192,18 +11171,18 @@
         <f t="shared" si="0"/>
         <v>44026</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
-      <c r="H19" s="72"/>
+      <c r="H19" s="63"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="72"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="63"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
@@ -11214,18 +11193,18 @@
         <f t="shared" si="0"/>
         <v>44027</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="85"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="58"/>
       <c r="G20" s="58"/>
-      <c r="H20" s="85"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="58"/>
       <c r="J20" s="58"/>
       <c r="K20" s="58"/>
-      <c r="L20" s="85"/>
+      <c r="L20" s="76"/>
       <c r="M20" s="58"/>
-      <c r="N20" s="76" t="s">
+      <c r="N20" s="67" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11238,18 +11217,18 @@
         <f t="shared" si="0"/>
         <v>44028</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
-      <c r="H21" s="72"/>
+      <c r="H21" s="63"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
-      <c r="L21" s="72"/>
+      <c r="L21" s="63"/>
       <c r="M21" s="36"/>
-      <c r="N21" s="72"/>
+      <c r="N21" s="63"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
@@ -11260,18 +11239,18 @@
         <f t="shared" si="0"/>
         <v>44029</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
-      <c r="H22" s="72"/>
+      <c r="H22" s="63"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
-      <c r="L22" s="72"/>
+      <c r="L22" s="63"/>
       <c r="M22" s="36"/>
-      <c r="N22" s="72"/>
+      <c r="N22" s="63"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
@@ -11282,18 +11261,18 @@
         <f t="shared" si="0"/>
         <v>44030</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="72"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="72"/>
+      <c r="H23" s="63"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="72"/>
+      <c r="L23" s="63"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="72"/>
+      <c r="N23" s="63"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
@@ -11304,18 +11283,18 @@
         <f t="shared" si="1"/>
         <v>44031</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
-      <c r="H24" s="72"/>
+      <c r="H24" s="63"/>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
-      <c r="L24" s="72"/>
+      <c r="L24" s="63"/>
       <c r="M24" s="36"/>
-      <c r="N24" s="72"/>
+      <c r="N24" s="63"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
@@ -11326,18 +11305,18 @@
         <f t="shared" si="1"/>
         <v>44032</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
-      <c r="H25" s="72"/>
+      <c r="H25" s="63"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="72"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="63"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
@@ -11348,18 +11327,18 @@
         <f t="shared" si="1"/>
         <v>44033</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="72"/>
+      <c r="H26" s="63"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="72"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="63"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
@@ -11370,18 +11349,18 @@
         <f t="shared" si="1"/>
         <v>44034</v>
       </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="76" t="s">
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="67" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11394,40 +11373,40 @@
         <f t="shared" si="1"/>
         <v>44035</v>
       </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
-      <c r="H28" s="72"/>
+      <c r="H28" s="63"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
-      <c r="L28" s="72"/>
+      <c r="L28" s="63"/>
       <c r="M28" s="36"/>
-      <c r="N28" s="72"/>
+      <c r="N28" s="63"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <f t="shared" si="1"/>
         <v>44036</v>
       </c>
-      <c r="B29" s="87">
+      <c r="B29" s="78">
         <f t="shared" si="1"/>
         <v>44036</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="88"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="79"/>
       <c r="F29" s="36"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
@@ -11438,8 +11417,8 @@
         <f t="shared" si="1"/>
         <v>44037</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="35"/>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
@@ -11460,18 +11439,18 @@
         <f t="shared" si="1"/>
         <v>44038</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
-      <c r="H31" s="72"/>
+      <c r="H31" s="63"/>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
-      <c r="L31" s="72"/>
+      <c r="L31" s="63"/>
       <c r="M31" s="36"/>
-      <c r="N31" s="72"/>
+      <c r="N31" s="63"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
@@ -11482,18 +11461,18 @@
         <f t="shared" si="1"/>
         <v>44039</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="72"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="72"/>
+      <c r="H32" s="63"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
-      <c r="L32" s="72"/>
+      <c r="L32" s="63"/>
       <c r="M32" s="36"/>
-      <c r="N32" s="72"/>
+      <c r="N32" s="63"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
@@ -11504,18 +11483,18 @@
         <f t="shared" si="1"/>
         <v>44040</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="72"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
-      <c r="H33" s="72"/>
+      <c r="H33" s="63"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
-      <c r="L33" s="72"/>
+      <c r="L33" s="63"/>
       <c r="M33" s="36"/>
-      <c r="N33" s="72"/>
+      <c r="N33" s="63"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="54">
@@ -11526,18 +11505,18 @@
         <f t="shared" si="1"/>
         <v>44041</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="81"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="72"/>
       <c r="F34" s="58"/>
       <c r="G34" s="58"/>
-      <c r="H34" s="81"/>
+      <c r="H34" s="72"/>
       <c r="I34" s="58"/>
       <c r="J34" s="58"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="76" t="s">
+      <c r="K34" s="73"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="67" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11550,18 +11529,18 @@
         <f t="shared" si="1"/>
         <v>44042</v>
       </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="72"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
-      <c r="H35" s="72"/>
+      <c r="H35" s="63"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="72"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="63"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
@@ -11572,18 +11551,18 @@
         <f t="shared" si="1"/>
         <v>44043</v>
       </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="72"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
-      <c r="H36" s="72"/>
+      <c r="H36" s="63"/>
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="72"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="63"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="17"/>
@@ -11723,172 +11702,172 @@
     <mergeCell ref="I4:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="M20:M21 M16 M18 M23 M25 L6:L26 L30:L33 N7:N12 N30:N33 C6:J26 C30:J33 C28:N28 C35:J35 N35 L35 N21:N26 N14:N19">
-    <cfRule type="expression" dxfId="299" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="27" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B36">
-    <cfRule type="expression" dxfId="298" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="79" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M7 M9:M14 M30:M32 M35">
-    <cfRule type="expression" dxfId="297" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="31" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="296" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="30" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="expression" dxfId="295" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="29" stopIfTrue="1">
       <formula>WEEKDAY($A15,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="294" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="37" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:K21 K16 K18 K23 K25">
-    <cfRule type="expression" dxfId="293" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="34" stopIfTrue="1">
       <formula>WEEKDAY($A16,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="292" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="35" stopIfTrue="1">
       <formula>WEEKDAY($A22,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="291" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="24" stopIfTrue="1">
       <formula>WEEKDAY($A19,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="290" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="23" stopIfTrue="1">
       <formula>WEEKDAY($A19,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="289" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="22" stopIfTrue="1">
       <formula>WEEKDAY($A26,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="expression" dxfId="288" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="21" stopIfTrue="1">
       <formula>WEEKDAY($A26,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="expression" dxfId="287" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="20" stopIfTrue="1">
       <formula>WEEKDAY($A33,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33">
-    <cfRule type="expression" dxfId="286" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="19" stopIfTrue="1">
       <formula>WEEKDAY($A33,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="expression" dxfId="285" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="17" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="284" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="16" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="expression" dxfId="283" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="15" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24">
-    <cfRule type="expression" dxfId="282" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="14" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K7 K9:K14 K30:K32 K35">
-    <cfRule type="expression" dxfId="281" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="38" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="280" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="36" stopIfTrue="1">
       <formula>WEEKDAY($A15,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="expression" dxfId="279" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="28" stopIfTrue="1">
       <formula>WEEKDAY($A22,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:N27">
-    <cfRule type="expression" dxfId="278" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="81" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="277" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="13" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="276" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="11" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="275" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="10" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:J34 N34 L34">
-    <cfRule type="expression" dxfId="274" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="8" stopIfTrue="1">
       <formula>WEEKDAY($A34,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="273" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="9" stopIfTrue="1">
       <formula>WEEKDAY($A34,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34">
-    <cfRule type="expression" dxfId="272" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="7" stopIfTrue="1">
       <formula>WEEKDAY($A34,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:J36 N36 L36">
-    <cfRule type="expression" dxfId="271" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="4" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
-    <cfRule type="expression" dxfId="270" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="5" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="expression" dxfId="269" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="6" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="expression" dxfId="268" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="3" stopIfTrue="1">
       <formula>WEEKDAY($A22,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="expression" dxfId="267" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="2" stopIfTrue="1">
       <formula>WEEKDAY($A15,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="266" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="1" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11917,28 +11896,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62">
+      <c r="A2" s="85">
         <v>44044</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -11952,20 +11931,20 @@
     <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="66"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="66"/>
+      <c r="J4" s="89"/>
       <c r="K4" s="3"/>
       <c r="L4" s="49" t="s">
         <v>6</v>
@@ -12011,8 +11990,8 @@
         <f>A6</f>
         <v>44044</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="60" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="35"/>
@@ -12035,18 +12014,18 @@
         <f>B6+1</f>
         <v>44045</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
-      <c r="H7" s="72"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
-      <c r="L7" s="72"/>
+      <c r="L7" s="63"/>
       <c r="M7" s="36"/>
-      <c r="N7" s="72"/>
+      <c r="N7" s="63"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
@@ -12057,18 +12036,18 @@
         <f t="shared" si="0"/>
         <v>44046</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
-      <c r="H8" s="72"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
-      <c r="L8" s="72"/>
+      <c r="L8" s="63"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="72"/>
+      <c r="N8" s="63"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
@@ -12079,18 +12058,18 @@
         <f t="shared" si="0"/>
         <v>44047</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
-      <c r="H9" s="72"/>
+      <c r="H9" s="63"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="72"/>
+      <c r="L9" s="63"/>
       <c r="M9" s="36"/>
-      <c r="N9" s="72"/>
+      <c r="N9" s="63"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
@@ -12101,18 +12080,18 @@
         <f t="shared" si="0"/>
         <v>44048</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="85"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="58"/>
       <c r="G10" s="58"/>
-      <c r="H10" s="85"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
       <c r="K10" s="58"/>
-      <c r="L10" s="85"/>
+      <c r="L10" s="76"/>
       <c r="M10" s="58"/>
-      <c r="N10" s="76" t="s">
+      <c r="N10" s="67" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12125,18 +12104,18 @@
         <f t="shared" si="0"/>
         <v>44049</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
-      <c r="H11" s="72"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="72"/>
+      <c r="L11" s="63"/>
       <c r="M11" s="36"/>
-      <c r="N11" s="72"/>
+      <c r="N11" s="63"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
@@ -12147,18 +12126,18 @@
         <f t="shared" si="0"/>
         <v>44050</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
-      <c r="H12" s="72"/>
+      <c r="H12" s="63"/>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
-      <c r="L12" s="72"/>
+      <c r="L12" s="63"/>
       <c r="M12" s="36"/>
-      <c r="N12" s="72"/>
+      <c r="N12" s="63"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
@@ -12169,18 +12148,18 @@
         <f t="shared" si="0"/>
         <v>44051</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
-      <c r="H13" s="72"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
-      <c r="L13" s="72"/>
+      <c r="L13" s="63"/>
       <c r="M13" s="36"/>
-      <c r="N13" s="72"/>
+      <c r="N13" s="63"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
@@ -12191,18 +12170,18 @@
         <f t="shared" si="0"/>
         <v>44052</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="72"/>
+      <c r="H14" s="63"/>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
-      <c r="L14" s="72"/>
+      <c r="L14" s="63"/>
       <c r="M14" s="36"/>
-      <c r="N14" s="72"/>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
@@ -12213,18 +12192,18 @@
         <f t="shared" si="0"/>
         <v>44053</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
-      <c r="H15" s="72"/>
+      <c r="H15" s="63"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="72"/>
+      <c r="L15" s="63"/>
       <c r="M15" s="36"/>
-      <c r="N15" s="72"/>
+      <c r="N15" s="63"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
@@ -12235,18 +12214,18 @@
         <f t="shared" si="0"/>
         <v>44054</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="72"/>
+      <c r="H16" s="63"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="72"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
@@ -12257,18 +12236,18 @@
         <f t="shared" si="0"/>
         <v>44055</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="85"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="58"/>
       <c r="G17" s="58"/>
-      <c r="H17" s="85"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="58"/>
       <c r="J17" s="58"/>
       <c r="K17" s="58"/>
-      <c r="L17" s="85"/>
+      <c r="L17" s="76"/>
       <c r="M17" s="58"/>
-      <c r="N17" s="76" t="s">
+      <c r="N17" s="67" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12281,18 +12260,18 @@
         <f t="shared" si="0"/>
         <v>44056</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
-      <c r="H18" s="72"/>
+      <c r="H18" s="63"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="72"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="63"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
@@ -12303,18 +12282,18 @@
         <f t="shared" si="0"/>
         <v>44057</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
-      <c r="H19" s="72"/>
+      <c r="H19" s="63"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="72"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="63"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
@@ -12325,18 +12304,18 @@
         <f t="shared" si="0"/>
         <v>44058</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="72"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
-      <c r="L20" s="72"/>
+      <c r="L20" s="63"/>
       <c r="M20" s="36"/>
-      <c r="N20" s="72"/>
+      <c r="N20" s="63"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
@@ -12347,18 +12326,18 @@
         <f t="shared" si="0"/>
         <v>44059</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
-      <c r="H21" s="72"/>
+      <c r="H21" s="63"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
-      <c r="L21" s="72"/>
+      <c r="L21" s="63"/>
       <c r="M21" s="36"/>
-      <c r="N21" s="72"/>
+      <c r="N21" s="63"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
@@ -12369,18 +12348,18 @@
         <f t="shared" si="0"/>
         <v>44060</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
-      <c r="H22" s="72"/>
+      <c r="H22" s="63"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
-      <c r="L22" s="72"/>
+      <c r="L22" s="63"/>
       <c r="M22" s="36"/>
-      <c r="N22" s="72"/>
+      <c r="N22" s="63"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
@@ -12391,18 +12370,18 @@
         <f t="shared" si="0"/>
         <v>44061</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="72"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="72"/>
+      <c r="H23" s="63"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="72"/>
+      <c r="L23" s="63"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="72"/>
+      <c r="N23" s="63"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
@@ -12413,42 +12392,42 @@
         <f t="shared" si="0"/>
         <v>44062</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="85"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="58"/>
       <c r="G24" s="58"/>
-      <c r="H24" s="85"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="58"/>
       <c r="J24" s="58"/>
       <c r="K24" s="58"/>
-      <c r="L24" s="85"/>
+      <c r="L24" s="76"/>
       <c r="M24" s="58"/>
-      <c r="N24" s="76" t="s">
+      <c r="N24" s="67" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
-        <f t="shared" ref="A24:B36" si="1">A24+1</f>
+        <f t="shared" ref="A25:B36" si="1">A24+1</f>
         <v>44063</v>
       </c>
       <c r="B25" s="10">
         <f t="shared" si="1"/>
         <v>44063</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
-      <c r="H25" s="72"/>
+      <c r="H25" s="63"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="72"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="63"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
@@ -12459,18 +12438,18 @@
         <f t="shared" si="1"/>
         <v>44064</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="72"/>
+      <c r="H26" s="63"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="72"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="63"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
@@ -12481,18 +12460,18 @@
         <f t="shared" si="1"/>
         <v>44065</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="84"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="72"/>
+      <c r="H27" s="63"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
-      <c r="L27" s="72"/>
+      <c r="L27" s="63"/>
       <c r="M27" s="36"/>
-      <c r="N27" s="72"/>
+      <c r="N27" s="63"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
@@ -12503,18 +12482,18 @@
         <f t="shared" si="1"/>
         <v>44066</v>
       </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
-      <c r="H28" s="72"/>
+      <c r="H28" s="63"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
-      <c r="L28" s="72"/>
+      <c r="L28" s="63"/>
       <c r="M28" s="36"/>
-      <c r="N28" s="72"/>
+      <c r="N28" s="63"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
@@ -12525,18 +12504,18 @@
         <f t="shared" si="1"/>
         <v>44067</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="72"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="36"/>
       <c r="G29" s="36"/>
-      <c r="H29" s="72"/>
+      <c r="H29" s="63"/>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="72"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="63"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
@@ -12547,18 +12526,18 @@
         <f t="shared" si="1"/>
         <v>44068</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
-      <c r="H30" s="72"/>
+      <c r="H30" s="63"/>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
-      <c r="L30" s="72"/>
+      <c r="L30" s="63"/>
       <c r="M30" s="36"/>
-      <c r="N30" s="72"/>
+      <c r="N30" s="63"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
@@ -12569,18 +12548,18 @@
         <f t="shared" si="1"/>
         <v>44069</v>
       </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="76" t="s">
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="67" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12593,18 +12572,18 @@
         <f t="shared" si="1"/>
         <v>44070</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="72"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="72"/>
+      <c r="H32" s="63"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
-      <c r="L32" s="72"/>
+      <c r="L32" s="63"/>
       <c r="M32" s="36"/>
-      <c r="N32" s="72"/>
+      <c r="N32" s="63"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
@@ -12615,18 +12594,18 @@
         <f t="shared" si="1"/>
         <v>44071</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="72"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
-      <c r="H33" s="72"/>
+      <c r="H33" s="63"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
-      <c r="L33" s="72"/>
+      <c r="L33" s="63"/>
       <c r="M33" s="36"/>
-      <c r="N33" s="72"/>
+      <c r="N33" s="63"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
@@ -12637,18 +12616,18 @@
         <f t="shared" si="1"/>
         <v>44072</v>
       </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="72"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="63"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
@@ -12659,18 +12638,18 @@
         <f t="shared" si="1"/>
         <v>44073</v>
       </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="72"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
-      <c r="H35" s="72"/>
+      <c r="H35" s="63"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="72"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="63"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
@@ -12681,18 +12660,18 @@
         <f t="shared" si="1"/>
         <v>44074</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="72"/>
       <c r="F36" s="58"/>
       <c r="G36" s="58"/>
-      <c r="H36" s="81"/>
+      <c r="H36" s="72"/>
       <c r="I36" s="58"/>
       <c r="J36" s="58"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="76" t="s">
+      <c r="K36" s="73"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="67" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12830,252 +12809,252 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="N24">
-    <cfRule type="expression" dxfId="265" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="1" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B16 A18:B23 A25:B36">
-    <cfRule type="expression" dxfId="264" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="76" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:G24">
-    <cfRule type="expression" dxfId="263" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="6" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="expression" dxfId="262" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="5" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="expression" dxfId="261" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="4" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24">
-    <cfRule type="expression" dxfId="260" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="3" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="expression" dxfId="259" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="14" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="258" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="13" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="expression" dxfId="257" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="19" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="256" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="18" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="expression" dxfId="255" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="17" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:J29">
-    <cfRule type="expression" dxfId="254" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="16" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="253" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="15" stopIfTrue="1">
       <formula>WEEKDAY($A10,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="252" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="11" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="expression" dxfId="251" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="10" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:J17">
-    <cfRule type="expression" dxfId="250" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="8" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B24">
-    <cfRule type="expression" dxfId="249" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="7" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:K21 K16 K18 K27:K28 K23 K25">
-    <cfRule type="expression" dxfId="248" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="44" stopIfTrue="1">
       <formula>WEEKDAY($A16,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="expression" dxfId="247" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="43" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:G16 C32:G36 C30:G30 C18:G23 C25:G28">
-    <cfRule type="expression" dxfId="246" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="49" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K7 K9:K14 K30 K34:K35 K32">
-    <cfRule type="expression" dxfId="245" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="48" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="244" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="47" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="243" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="46" stopIfTrue="1">
       <formula>WEEKDAY($A15,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="242" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="45" stopIfTrue="1">
       <formula>WEEKDAY($A22,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L16 L32:L36 L30 L18:L23 L25:L28">
-    <cfRule type="expression" dxfId="241" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="42" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20:M21 M16 M18 M27:M28 M23 M25">
-    <cfRule type="expression" dxfId="240" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="37" stopIfTrue="1">
       <formula>WEEKDAY($A16,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
-    <cfRule type="expression" dxfId="239" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="36" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M7 M9:M14 M30 M34:M35 M32">
-    <cfRule type="expression" dxfId="238" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="41" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="237" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="40" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="expression" dxfId="236" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="39" stopIfTrue="1">
       <formula>WEEKDAY($A15,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="expression" dxfId="235" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="38" stopIfTrue="1">
       <formula>WEEKDAY($A22,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N9 N32:N36 N30 N11:N16 N18:N23 N25:N28">
-    <cfRule type="expression" dxfId="234" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="35" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="233" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="34" stopIfTrue="1">
       <formula>WEEKDAY($A19,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="232" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="33" stopIfTrue="1">
       <formula>WEEKDAY($A19,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="231" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="32" stopIfTrue="1">
       <formula>WEEKDAY($A26,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="expression" dxfId="230" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="31" stopIfTrue="1">
       <formula>WEEKDAY($A26,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="expression" dxfId="229" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="30" stopIfTrue="1">
       <formula>WEEKDAY($A33,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33">
-    <cfRule type="expression" dxfId="228" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="29" stopIfTrue="1">
       <formula>WEEKDAY($A33,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:J16 H32:J36 H30:J30 H18:J23 H25:J28">
-    <cfRule type="expression" dxfId="227" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="28" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="expression" dxfId="226" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="26" stopIfTrue="1">
       <formula>WEEKDAY($A31,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:G31">
-    <cfRule type="expression" dxfId="225" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="27" stopIfTrue="1">
       <formula>WEEKDAY($A31,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="expression" dxfId="224" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="25" stopIfTrue="1">
       <formula>WEEKDAY($A31,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31">
-    <cfRule type="expression" dxfId="223" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="24" stopIfTrue="1">
       <formula>WEEKDAY($A31,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="222" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="23" stopIfTrue="1">
       <formula>WEEKDAY($A31,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:J31">
-    <cfRule type="expression" dxfId="221" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="22" stopIfTrue="1">
       <formula>WEEKDAY($A31,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:G29">
-    <cfRule type="expression" dxfId="220" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="21" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="expression" dxfId="219" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="20" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:G17">
-    <cfRule type="expression" dxfId="218" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="12" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="expression" dxfId="217" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="9" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:J24">
-    <cfRule type="expression" dxfId="216" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="2" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13104,28 +13083,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62">
+      <c r="A2" s="85">
         <v>44075</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -13139,20 +13118,20 @@
     <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="66"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="66"/>
+      <c r="J4" s="89"/>
       <c r="K4" s="3"/>
       <c r="L4" s="49" t="s">
         <v>6</v>
@@ -13197,8 +13176,8 @@
       <c r="B6" s="5">
         <v>43709</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="60" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="35"/>
@@ -13221,18 +13200,18 @@
         <f t="shared" si="0"/>
         <v>43710</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="58"/>
       <c r="G7" s="58"/>
-      <c r="H7" s="81"/>
+      <c r="H7" s="72"/>
       <c r="I7" s="58"/>
       <c r="J7" s="58"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="76" t="s">
+      <c r="K7" s="73"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="67" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13245,18 +13224,18 @@
         <f t="shared" si="1"/>
         <v>43711</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
-      <c r="H8" s="72"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
-      <c r="L8" s="72"/>
+      <c r="L8" s="63"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="72"/>
+      <c r="N8" s="63"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
@@ -13267,18 +13246,18 @@
         <f t="shared" si="1"/>
         <v>43712</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
-      <c r="H9" s="72"/>
+      <c r="H9" s="63"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="72"/>
+      <c r="L9" s="63"/>
       <c r="M9" s="36"/>
-      <c r="N9" s="72"/>
+      <c r="N9" s="63"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
@@ -13289,18 +13268,18 @@
         <f t="shared" si="1"/>
         <v>43713</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="85"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="58"/>
       <c r="G10" s="58"/>
-      <c r="H10" s="85"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
       <c r="K10" s="58"/>
-      <c r="L10" s="85"/>
+      <c r="L10" s="76"/>
       <c r="M10" s="58"/>
-      <c r="N10" s="76"/>
+      <c r="N10" s="67"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
@@ -13311,18 +13290,18 @@
         <f t="shared" si="1"/>
         <v>43714</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
-      <c r="H11" s="72"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="72"/>
+      <c r="L11" s="63"/>
       <c r="M11" s="36"/>
-      <c r="N11" s="72"/>
+      <c r="N11" s="63"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
@@ -13333,18 +13312,18 @@
         <f t="shared" si="1"/>
         <v>43715</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
-      <c r="H12" s="72"/>
+      <c r="H12" s="63"/>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
-      <c r="L12" s="72"/>
+      <c r="L12" s="63"/>
       <c r="M12" s="36"/>
-      <c r="N12" s="72"/>
+      <c r="N12" s="63"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
@@ -13355,18 +13334,18 @@
         <f t="shared" si="1"/>
         <v>43716</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
-      <c r="H13" s="72"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
-      <c r="L13" s="72"/>
+      <c r="L13" s="63"/>
       <c r="M13" s="36"/>
-      <c r="N13" s="72"/>
+      <c r="N13" s="63"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
@@ -13377,18 +13356,18 @@
         <f t="shared" si="1"/>
         <v>43717</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="58"/>
       <c r="G14" s="58"/>
-      <c r="H14" s="81"/>
+      <c r="H14" s="72"/>
       <c r="I14" s="58"/>
       <c r="J14" s="58"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="76" t="s">
+      <c r="K14" s="73"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="67" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13401,18 +13380,18 @@
         <f t="shared" si="1"/>
         <v>43718</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
-      <c r="H15" s="72"/>
+      <c r="H15" s="63"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="72"/>
+      <c r="L15" s="63"/>
       <c r="M15" s="36"/>
-      <c r="N15" s="72"/>
+      <c r="N15" s="63"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
@@ -13423,18 +13402,18 @@
         <f t="shared" si="1"/>
         <v>43719</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="72"/>
+      <c r="H16" s="63"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="72"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
@@ -13445,18 +13424,18 @@
         <f t="shared" si="1"/>
         <v>43720</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="85"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="58"/>
       <c r="G17" s="58"/>
-      <c r="H17" s="85"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="58"/>
       <c r="J17" s="58"/>
       <c r="K17" s="58"/>
-      <c r="L17" s="85"/>
+      <c r="L17" s="76"/>
       <c r="M17" s="58"/>
-      <c r="N17" s="76"/>
+      <c r="N17" s="67"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
@@ -13467,18 +13446,18 @@
         <f t="shared" si="1"/>
         <v>43721</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
-      <c r="H18" s="72"/>
+      <c r="H18" s="63"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="72"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="63"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
@@ -13489,18 +13468,18 @@
         <f t="shared" si="1"/>
         <v>43722</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
-      <c r="H19" s="72"/>
+      <c r="H19" s="63"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="72"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="63"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
@@ -13511,18 +13490,18 @@
         <f t="shared" si="1"/>
         <v>43723</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="72"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
-      <c r="L20" s="72"/>
+      <c r="L20" s="63"/>
       <c r="M20" s="36"/>
-      <c r="N20" s="72"/>
+      <c r="N20" s="63"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
@@ -13533,18 +13512,18 @@
         <f t="shared" si="1"/>
         <v>43724</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="58"/>
       <c r="G21" s="58"/>
-      <c r="H21" s="81"/>
+      <c r="H21" s="72"/>
       <c r="I21" s="58"/>
       <c r="J21" s="58"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="76" t="s">
+      <c r="K21" s="73"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="67" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13557,18 +13536,18 @@
         <f t="shared" si="1"/>
         <v>43725</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
-      <c r="H22" s="72"/>
+      <c r="H22" s="63"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
-      <c r="L22" s="72"/>
+      <c r="L22" s="63"/>
       <c r="M22" s="36"/>
-      <c r="N22" s="72"/>
+      <c r="N22" s="63"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
@@ -13579,18 +13558,18 @@
         <f t="shared" si="1"/>
         <v>43726</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="72"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="72"/>
+      <c r="H23" s="63"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="72"/>
+      <c r="L23" s="63"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="72"/>
+      <c r="N23" s="63"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
@@ -13601,18 +13580,18 @@
         <f t="shared" si="2"/>
         <v>43727</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="85"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="58"/>
       <c r="G24" s="58"/>
-      <c r="H24" s="85"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="58"/>
       <c r="J24" s="58"/>
       <c r="K24" s="58"/>
-      <c r="L24" s="85"/>
+      <c r="L24" s="76"/>
       <c r="M24" s="58"/>
-      <c r="N24" s="76"/>
+      <c r="N24" s="67"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
@@ -13623,18 +13602,18 @@
         <f t="shared" si="2"/>
         <v>43728</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
-      <c r="H25" s="72"/>
+      <c r="H25" s="63"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="72"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="63"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
@@ -13645,18 +13624,18 @@
         <f t="shared" si="2"/>
         <v>43729</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="72"/>
+      <c r="H26" s="63"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="72"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="63"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
@@ -13667,18 +13646,18 @@
         <f t="shared" si="2"/>
         <v>43730</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="84"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="72"/>
+      <c r="H27" s="63"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
-      <c r="L27" s="72"/>
+      <c r="L27" s="63"/>
       <c r="M27" s="36"/>
-      <c r="N27" s="72"/>
+      <c r="N27" s="63"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="54">
@@ -13689,18 +13668,18 @@
         <f t="shared" si="2"/>
         <v>43731</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="72"/>
       <c r="F28" s="58"/>
       <c r="G28" s="58"/>
-      <c r="H28" s="81"/>
+      <c r="H28" s="72"/>
       <c r="I28" s="58"/>
       <c r="J28" s="58"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="76" t="s">
+      <c r="K28" s="73"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="67" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13713,18 +13692,18 @@
         <f t="shared" si="2"/>
         <v>43732</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="72"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="36"/>
       <c r="G29" s="36"/>
-      <c r="H29" s="72"/>
+      <c r="H29" s="63"/>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="72"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="63"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
@@ -13735,18 +13714,18 @@
         <f t="shared" si="2"/>
         <v>43733</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
-      <c r="H30" s="72"/>
+      <c r="H30" s="63"/>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
-      <c r="L30" s="72"/>
+      <c r="L30" s="63"/>
       <c r="M30" s="36"/>
-      <c r="N30" s="72"/>
+      <c r="N30" s="63"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
@@ -13757,18 +13736,18 @@
         <f t="shared" si="2"/>
         <v>43734</v>
       </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="76"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="67"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
@@ -13779,18 +13758,18 @@
         <f t="shared" si="2"/>
         <v>43735</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="72"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="72"/>
+      <c r="H32" s="63"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
-      <c r="L32" s="72"/>
+      <c r="L32" s="63"/>
       <c r="M32" s="36"/>
-      <c r="N32" s="72"/>
+      <c r="N32" s="63"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
@@ -13801,18 +13780,18 @@
         <f t="shared" si="2"/>
         <v>43736</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="72"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
-      <c r="H33" s="72"/>
+      <c r="H33" s="63"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
-      <c r="L33" s="72"/>
+      <c r="L33" s="63"/>
       <c r="M33" s="36"/>
-      <c r="N33" s="72"/>
+      <c r="N33" s="63"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
@@ -13823,18 +13802,18 @@
         <f t="shared" si="2"/>
         <v>43737</v>
       </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="72"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="63"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="54">
@@ -13845,18 +13824,18 @@
         <f t="shared" si="2"/>
         <v>43738</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="72"/>
       <c r="F35" s="58"/>
       <c r="G35" s="58"/>
-      <c r="H35" s="81"/>
+      <c r="H35" s="72"/>
       <c r="I35" s="58"/>
       <c r="J35" s="58"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="76" t="s">
+      <c r="K35" s="73"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="67" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13869,18 +13848,18 @@
         <f t="shared" si="2"/>
         <v>43739</v>
       </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="72"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="63"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="17"/>
@@ -14016,432 +13995,432 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="215" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="4" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="214" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="3" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6 A29:B36 A22:B27 A15:B20 A8:B13">
-    <cfRule type="expression" dxfId="213" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="116" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:J14">
-    <cfRule type="expression" dxfId="212" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="8" stopIfTrue="1">
       <formula>WEEKDAY($A14,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7">
-    <cfRule type="expression" dxfId="211" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="7" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:G7">
-    <cfRule type="expression" dxfId="210" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="6" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="209" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="5" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:J7">
-    <cfRule type="expression" dxfId="208" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="1" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="expression" dxfId="207" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="14" stopIfTrue="1">
       <formula>WEEKDAY($A14,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:G14">
-    <cfRule type="expression" dxfId="206" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="13" stopIfTrue="1">
       <formula>WEEKDAY($A14,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="205" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="19" stopIfTrue="1">
       <formula>WEEKDAY($A21,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="expression" dxfId="204" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="18" stopIfTrue="1">
       <formula>WEEKDAY($A21,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="expression" dxfId="203" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="17" stopIfTrue="1">
       <formula>WEEKDAY($A21,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="expression" dxfId="202" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="16" stopIfTrue="1">
       <formula>WEEKDAY($A21,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:J21">
-    <cfRule type="expression" dxfId="201" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="15" stopIfTrue="1">
       <formula>WEEKDAY($A21,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="200" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="11" stopIfTrue="1">
       <formula>WEEKDAY($A14,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="199" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="10" stopIfTrue="1">
       <formula>WEEKDAY($A14,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20 K16 K18 K27 K23 K25">
-    <cfRule type="expression" dxfId="198" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="82" stopIfTrue="1">
       <formula>WEEKDAY($A16,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:J17">
-    <cfRule type="expression" dxfId="197" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="47" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:G6 C32:G34 C30:G30 C18:G20 C25:G27 C22:G23 C15:G16 C8:G13">
-    <cfRule type="expression" dxfId="196" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="87" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6 K9:K13 K30 K34 K32">
-    <cfRule type="expression" dxfId="195" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="86" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="194" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="85" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="193" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="84" stopIfTrue="1">
       <formula>WEEKDAY($A15,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="192" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="83" stopIfTrue="1">
       <formula>WEEKDAY($A22,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6 L32:L34 L30 L18:L20 L25:L27 L22:L23 L15:L16 L8:L13">
-    <cfRule type="expression" dxfId="191" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="80" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20 M16 M18 M27 M23 M25">
-    <cfRule type="expression" dxfId="190" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="75" stopIfTrue="1">
       <formula>WEEKDAY($A16,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:G35">
-    <cfRule type="expression" dxfId="189" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="40" stopIfTrue="1">
       <formula>WEEKDAY($A35,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6 M9:M13 M30 M34 M32">
-    <cfRule type="expression" dxfId="188" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="79" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="187" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="78" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="expression" dxfId="186" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="77" stopIfTrue="1">
       <formula>WEEKDAY($A15,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="expression" dxfId="185" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="76" stopIfTrue="1">
       <formula>WEEKDAY($A22,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6 N32:N34 N30 N11:N13 N18:N20 N25:N27 N22:N23 N15:N16 N8:N9">
-    <cfRule type="expression" dxfId="184" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="73" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="183" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="72" stopIfTrue="1">
       <formula>WEEKDAY($A19,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="182" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="71" stopIfTrue="1">
       <formula>WEEKDAY($A19,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="181" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="70" stopIfTrue="1">
       <formula>WEEKDAY($A26,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="expression" dxfId="180" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="69" stopIfTrue="1">
       <formula>WEEKDAY($A26,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="expression" dxfId="179" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="68" stopIfTrue="1">
       <formula>WEEKDAY($A33,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33">
-    <cfRule type="expression" dxfId="178" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="67" stopIfTrue="1">
       <formula>WEEKDAY($A33,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:J6 H32:J34 H30:J30 H18:J20 H25:J27 H22:J23 H15:J16 H8:J13">
-    <cfRule type="expression" dxfId="177" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="66" stopIfTrue="1">
       <formula>WEEKDAY($A6,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="expression" dxfId="176" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="64" stopIfTrue="1">
       <formula>WEEKDAY($A31,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:G31">
-    <cfRule type="expression" dxfId="175" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="65" stopIfTrue="1">
       <formula>WEEKDAY($A31,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="expression" dxfId="174" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="63" stopIfTrue="1">
       <formula>WEEKDAY($A31,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31">
-    <cfRule type="expression" dxfId="173" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="62" stopIfTrue="1">
       <formula>WEEKDAY($A31,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="172" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="61" stopIfTrue="1">
       <formula>WEEKDAY($A31,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:J31">
-    <cfRule type="expression" dxfId="171" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="60" stopIfTrue="1">
       <formula>WEEKDAY($A31,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:G29">
-    <cfRule type="expression" dxfId="170" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="59" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="expression" dxfId="169" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="58" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="expression" dxfId="168" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="57" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="167" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="56" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="expression" dxfId="166" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="55" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:J29">
-    <cfRule type="expression" dxfId="165" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="54" stopIfTrue="1">
       <formula>WEEKDAY($A29,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="164" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="53" stopIfTrue="1">
       <formula>WEEKDAY($A10,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="expression" dxfId="163" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="52" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:G17">
-    <cfRule type="expression" dxfId="162" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="51" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="161" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="50" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="expression" dxfId="160" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="49" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="expression" dxfId="159" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="48" stopIfTrue="1">
       <formula>WEEKDAY($A17,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:G24">
-    <cfRule type="expression" dxfId="158" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="46" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="expression" dxfId="157" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="45" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="expression" dxfId="156" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="44" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24">
-    <cfRule type="expression" dxfId="155" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="43" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:J24">
-    <cfRule type="expression" dxfId="154" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="42" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="expression" dxfId="153" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="41" stopIfTrue="1">
       <formula>WEEKDAY($A24,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="expression" dxfId="152" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="39" stopIfTrue="1">
       <formula>WEEKDAY($A35,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="expression" dxfId="151" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="38" stopIfTrue="1">
       <formula>WEEKDAY($A35,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35">
-    <cfRule type="expression" dxfId="150" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="37" stopIfTrue="1">
       <formula>WEEKDAY($A35,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35">
-    <cfRule type="expression" dxfId="149" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="36" stopIfTrue="1">
       <formula>WEEKDAY($A35,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:J35">
-    <cfRule type="expression" dxfId="148" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="35" stopIfTrue="1">
       <formula>WEEKDAY($A35,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:G36">
-    <cfRule type="expression" dxfId="147" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="34" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="expression" dxfId="146" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="33" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L36">
-    <cfRule type="expression" dxfId="145" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="32" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
-    <cfRule type="expression" dxfId="144" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="31" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36">
-    <cfRule type="expression" dxfId="143" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="30" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:J36">
-    <cfRule type="expression" dxfId="142" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="29" stopIfTrue="1">
       <formula>WEEKDAY($A36,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B28">
-    <cfRule type="expression" dxfId="141" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="28" stopIfTrue="1">
       <formula>WEEKDAY($A28,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="140" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="26" stopIfTrue="1">
       <formula>WEEKDAY($A28,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:G28">
-    <cfRule type="expression" dxfId="139" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="27" stopIfTrue="1">
       <formula>WEEKDAY($A28,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="expression" dxfId="138" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="25" stopIfTrue="1">
       <formula>WEEKDAY($A28,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="expression" dxfId="137" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="24" stopIfTrue="1">
       <formula>WEEKDAY($A28,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="expression" dxfId="136" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="23" stopIfTrue="1">
       <formula>WEEKDAY($A28,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:J28">
-    <cfRule type="expression" dxfId="135" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="22" stopIfTrue="1">
       <formula>WEEKDAY($A28,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="expression" dxfId="134" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="21" stopIfTrue="1">
       <formula>WEEKDAY($A21,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:G21">
-    <cfRule type="expression" dxfId="133" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="20" stopIfTrue="1">
       <formula>WEEKDAY($A21,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="132" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="12" stopIfTrue="1">
       <formula>WEEKDAY($A14,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="131" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="9" stopIfTrue="1">
       <formula>WEEKDAY($A14,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="expression" dxfId="130" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="2" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/phd_to_dos.xlsx
+++ b/phd_to_dos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7774FCA-2B25-4C7D-8083-A3703EDB8053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EB94B3-CD04-4AFB-ABD7-607FC4BB158D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" firstSheet="1" activeTab="5" xr2:uid="{FD38549E-49F2-4B4E-9CFC-1C02E9C2A51D}"/>
   </bookViews>
@@ -692,6 +692,10 @@
     <xf numFmtId="166" fontId="4" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -710,18 +714,14 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4582,28 +4582,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="85">
+      <c r="A2" s="87">
         <v>43831</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -4678,28 +4678,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="85">
+      <c r="A2" s="87">
         <v>43374</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -4713,20 +4713,20 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="89"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="89"/>
+      <c r="J4" s="92"/>
       <c r="K4" s="3"/>
       <c r="L4" s="49" t="s">
         <v>6</v>
@@ -6190,50 +6190,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="85">
+      <c r="A2" s="87">
         <v>44136</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="89"/>
+      <c r="J4" s="92"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="88" t="s">
+      <c r="L4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="89"/>
+      <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="29" t="s">
@@ -7257,50 +7257,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="85">
+      <c r="A2" s="87">
         <v>44166</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="89"/>
+      <c r="J4" s="92"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="88" t="s">
+      <c r="L4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="89"/>
+      <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="29" t="s">
@@ -8226,28 +8226,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="85">
+      <c r="A2" s="87">
         <v>43862</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -8421,28 +8421,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="85">
+      <c r="A2" s="87">
         <v>43891</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -8505,28 +8505,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="85">
+      <c r="A2" s="87">
         <v>44105</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -9318,28 +9318,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="85">
+      <c r="A2" s="87">
         <v>43952</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -9711,8 +9711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE7BC2-36C0-0843-A754-CFE1AB9CF28D}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9731,28 +9731,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="85">
+      <c r="A2" s="87">
         <v>43983</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -9766,15 +9766,15 @@
     <row r="4" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="89"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="3"/>
       <c r="I4" s="49" t="s">
         <v>5</v>
@@ -9809,7 +9809,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="92"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
@@ -10307,7 +10307,7 @@
       <c r="J28" s="36"/>
       <c r="K28" s="63"/>
       <c r="L28" s="36"/>
-      <c r="M28" s="91" t="s">
+      <c r="M28" s="82" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10787,28 +10787,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="85">
+      <c r="A2" s="87">
         <v>44013</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -10822,20 +10822,20 @@
     <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="89"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="89"/>
+      <c r="J4" s="92"/>
       <c r="K4" s="3"/>
       <c r="L4" s="49" t="s">
         <v>6</v>
@@ -11896,28 +11896,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="85">
+      <c r="A2" s="87">
         <v>44044</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -11931,20 +11931,20 @@
     <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="89"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="89"/>
+      <c r="J4" s="92"/>
       <c r="K4" s="3"/>
       <c r="L4" s="49" t="s">
         <v>6</v>
@@ -13083,28 +13083,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="85">
+      <c r="A2" s="87">
         <v>44075</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -13118,20 +13118,20 @@
     <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="89"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="89"/>
+      <c r="J4" s="92"/>
       <c r="K4" s="3"/>
       <c r="L4" s="49" t="s">
         <v>6</v>

--- a/phd_to_dos.xlsx
+++ b/phd_to_dos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EB94B3-CD04-4AFB-ABD7-607FC4BB158D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAD04A8-6ABD-4CF9-BEC5-4238C851ED68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" firstSheet="1" activeTab="5" xr2:uid="{FD38549E-49F2-4B4E-9CFC-1C02E9C2A51D}"/>
   </bookViews>
@@ -9711,8 +9711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE7BC2-36C0-0843-A754-CFE1AB9CF28D}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/phd_to_dos.xlsx
+++ b/phd_to_dos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAD04A8-6ABD-4CF9-BEC5-4238C851ED68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43012F7-F7E4-43C6-834D-44FF326E7486}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" firstSheet="1" activeTab="5" xr2:uid="{FD38549E-49F2-4B4E-9CFC-1C02E9C2A51D}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t>Datenexport (manual mapping vs. hand coding)</t>
   </si>
   <si>
-    <t>R markdown erstellen (Namen + Filiation)</t>
-  </si>
-  <si>
     <t>Paper II</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Exposé beenden + Anne schicken (bis 15 Uhr)</t>
+  </si>
+  <si>
+    <t>R markdown erstellen (Namen + Affiliationen)</t>
   </si>
 </sst>
 </file>
@@ -4724,7 +4724,7 @@
       <c r="G4" s="92"/>
       <c r="H4" s="3"/>
       <c r="I4" s="91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="92"/>
       <c r="K4" s="3"/>
@@ -4754,7 +4754,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
@@ -9711,8 +9711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE7BC2-36C0-0843-A754-CFE1AB9CF28D}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9785,7 +9785,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -9806,7 +9806,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="83"/>
@@ -10276,12 +10276,12 @@
       <c r="D27" s="62"/>
       <c r="E27" s="63"/>
       <c r="F27" s="75" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G27" s="36"/>
       <c r="H27" s="63"/>
       <c r="I27" s="75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J27" s="36"/>
       <c r="K27" s="63"/>
@@ -10308,7 +10308,7 @@
       <c r="K28" s="63"/>
       <c r="L28" s="36"/>
       <c r="M28" s="82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -11942,7 +11942,7 @@
       <c r="G4" s="92"/>
       <c r="H4" s="3"/>
       <c r="I4" s="91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="92"/>
       <c r="K4" s="3"/>
@@ -11972,7 +11972,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
@@ -13129,7 +13129,7 @@
       <c r="G4" s="92"/>
       <c r="H4" s="3"/>
       <c r="I4" s="91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="92"/>
       <c r="K4" s="3"/>
@@ -13159,7 +13159,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
